--- a/Proyecto/Templates/GeoP_PlanPrueba_TestCaseExec-Template.xlsx
+++ b/Proyecto/Templates/GeoP_PlanPrueba_TestCaseExec-Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="630" windowWidth="9015" windowHeight="7110" activeTab="5"/>
+    <workbookView xWindow="510" yWindow="630" windowWidth="9015" windowHeight="7110" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="TC_04" sheetId="4" r:id="rId4"/>
     <sheet name="TC_05" sheetId="5" r:id="rId5"/>
     <sheet name="TC_06" sheetId="6" r:id="rId6"/>
+    <sheet name="TC_07" sheetId="7" r:id="rId7"/>
+    <sheet name="TC_08" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Registro de ejecución de Test Cases</t>
   </si>
@@ -145,13 +147,118 @@
   </si>
   <si>
     <t>Resultado Obtenido</t>
+  </si>
+  <si>
+    <t>ingresar al menu administrar playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>se carga la seccion de administrar playas de estacionamiento</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>Presiono el boton buscar</t>
+  </si>
+  <si>
+    <t>Aparece una tabla que contiene la playa de estacionamiento &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>Hago click en el boton modificar de la fila donde se encuentra la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>se muestra el modal con los datos de la playa &lt;Playa1&gt; y los campos son editables</t>
+  </si>
+  <si>
+    <t>Presiono el boton "mas" para agregar una nueva direccion</t>
+  </si>
+  <si>
+    <t>Ingreso Dean Funes como calle</t>
+  </si>
+  <si>
+    <t>Ingreso 9 como numero</t>
+  </si>
+  <si>
+    <t>Presiono el boton que parece un tilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se agrega &lt;Domicilio2&gt; en la grilla de domicilios </t>
+  </si>
+  <si>
+    <t>Presiono el boton guardar</t>
+  </si>
+  <si>
+    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento CPA_Playa1?</t>
+  </si>
+  <si>
+    <t>Selecciono la opcion "Si"</t>
+  </si>
+  <si>
+    <t>Se muestra el mensaje "La playa se modificó exitosamente"</t>
+  </si>
+  <si>
+    <t>Se muestra el formulario para ingresar una nueva direccion, con los combos de provincia, departamento y ciudad ya seleccionados y no permiten editar</t>
+  </si>
+  <si>
+    <t>Se muestrra el formulario, pero sin la provincia, departamento y ciudad.</t>
+  </si>
+  <si>
+    <t>ingreso a la pagina principal.</t>
+  </si>
+  <si>
+    <t>Ingreso "Córdoba" en el campo nombre de ciudad</t>
+  </si>
+  <si>
+    <t>Se carga la pagina BuscarPlayas, con todas las playas de "Córdoba" disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
+  </si>
+  <si>
+    <t>Se carga el mapa con las playas, no aparece la grilla.</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_TipoPlaya1&gt; en el campo Tipo de Playa</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_TipoVehiculo1&gt; en el campo Tipo de Vehiculo</t>
+  </si>
+  <si>
+    <t>Ingreso 0 en el campo precio desde</t>
+  </si>
+  <si>
+    <t>Ingreso 99 en el campo precio hasta</t>
+  </si>
+  <si>
+    <t>Ingreso 00:00 en el campo hora desde</t>
+  </si>
+  <si>
+    <t>Ingreso 23:59 en el campo hora hasta</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_DiasDeAtencion1&gt; en el campo Dias de atencion</t>
+  </si>
+  <si>
+    <t>Presiono el boton filtrar</t>
+  </si>
+  <si>
+    <t>Se muestran en el mapa las playas que cumplen con los filtros seleccionados</t>
+  </si>
+  <si>
+    <t>Ingreso "Colon" en el campo calle</t>
+  </si>
+  <si>
+    <t>Ingreso "9" en el campo numero</t>
+  </si>
+  <si>
+    <t>Se hace zoom el mapa y se centra en la direccion ingresada</t>
+  </si>
+  <si>
+    <t>Se centra en la direccion ingresada, no se hace zoom.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +389,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -301,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -549,11 +663,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF548DD4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +778,17 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,6 +796,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +889,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -753,7 +923,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -929,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -945,42 +1114,42 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -991,72 +1160,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1071,14 +1240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -1087,42 +1256,42 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1133,72 +1302,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
       <c r="B20" s="20"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1213,14 +1382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -1229,42 +1398,42 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1275,72 +1444,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1355,14 +1524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -1371,42 +1540,46 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>41898</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1417,94 +1590,114 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -1513,42 +1706,42 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1559,72 +1752,72 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1639,14 +1832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -1655,42 +1848,46 @@
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>41912</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1701,80 +1898,429 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.25">
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D7:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41912</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1">
+      <c r="B17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41912</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" thickBot="1">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
